--- a/App/dist/salary/Targets/1403/03-khordad.xlsx
+++ b/App/dist/salary/Targets/1403/03-khordad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t xml:space="preserve">branch_id</t>
   </si>
@@ -82,79 +82,79 @@
     <t xml:space="preserve">شعبه 4</t>
   </si>
   <si>
+    <t xml:space="preserve">فاطمه کرمی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهرا زواری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه ۵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نگین قادری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نجمه زارع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه رجایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملیکا نعمتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه برج اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محیا افضلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه قشم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طيبه فرهادي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرکزی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم اورینب فتاحی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه زرند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عاطفه ایزدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه امراللهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه سیرجان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم مهلا اسماعیل نسب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه سنتر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عطیه محمدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعبه رفسنجان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهه رمضانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانتر 1001 شب</t>
+  </si>
+  <si>
     <t xml:space="preserve">هانیه خواجه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زهرا زواری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه ۵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الهه زندوکیلی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نجمه زارع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاطمه رجایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ملیکا نعمتی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه برج اول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محیا افضلی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه قشم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طيبه فرهادي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مرکزی </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطیه محمدی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سارا منصوری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خانم اورینب فتاحی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه زرند</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عاطفه ایزدی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاطمه امراللهی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه سیرجان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خانم مهلا اسماعیل نسب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه سنتر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شعبه رفسنجان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الهه رمضانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کانتر 1001 شب</t>
   </si>
 </sst>
 </file>
@@ -212,12 +212,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -267,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +304,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,7 +360,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -377,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,13 +450,13 @@
       <c r="A2" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -453,7 +467,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="n">
-        <v>1929287464.27074</v>
+        <v>2251228096</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
@@ -464,13 +478,13 @@
       <c r="A3" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>199</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -481,7 +495,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="n">
-        <v>2893931196.40612</v>
+        <v>3376842144</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0</v>
@@ -492,13 +506,13 @@
       <c r="A4" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>221</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -509,7 +523,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="n">
-        <v>1425995082.28707</v>
+        <v>1574284445</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0</v>
@@ -520,13 +534,13 @@
       <c r="A5" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>215</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -537,7 +551,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="n">
-        <v>2138992623.43061</v>
+        <v>2361426668</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0</v>
@@ -548,13 +562,13 @@
       <c r="A6" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>209</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -565,7 +579,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="n">
-        <v>754938572.975508</v>
+        <v>900491239</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0</v>
@@ -576,13 +590,13 @@
       <c r="A7" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>240</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -593,7 +607,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="n">
-        <v>1132407859.46326</v>
+        <v>1350736858</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>0</v>
@@ -604,13 +618,13 @@
       <c r="A8" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -621,7 +635,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="n">
-        <v>1048525795.79932</v>
+        <v>1227942598</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>0</v>
@@ -632,13 +646,13 @@
       <c r="A9" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>207</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -649,7 +663,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="n">
-        <v>1572788693.69898</v>
+        <v>1841913897</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0</v>
@@ -660,24 +674,24 @@
       <c r="A10" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>216</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="n">
-        <v>1467936114.11904</v>
+        <v>1719119637</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
@@ -688,13 +702,13 @@
       <c r="A11" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>224</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -705,7 +719,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="n">
-        <v>2726167069.07822</v>
+        <v>3192650755</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>0</v>
@@ -716,13 +730,13 @@
       <c r="A12" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>228</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -733,7 +747,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="n">
-        <v>671056509.311563</v>
+        <v>163725680</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>0</v>
@@ -744,71 +758,77 @@
       <c r="A13" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>353</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="n">
-        <v>1153378375</v>
+        <v>573039879</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="4"/>
+      <c r="N13" s="1" t="n">
+        <v>27000000000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>353</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="n">
-        <v>1153378375</v>
+        <v>859559819</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>30000000</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>55000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>228</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -819,12 +839,16 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="n">
-        <v>671056509.311563</v>
+        <v>654902719</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
+      <c r="N15" s="1" t="n">
+        <f aca="false">N13/N14</f>
+        <v>490909.090909091</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -834,9 +858,9 @@
         <v>32</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>245</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -862,9 +886,9 @@
         <v>32</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>245</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -884,158 +908,162 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>305</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>281</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="n">
-        <v>0</v>
+        <v>689852832</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>806566400</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>25000000</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>305</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>280</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="n">
-        <v>0</v>
+        <v>1079000583</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>1261552574</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>25000000</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>317</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>35</v>
+        <v>285</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="n">
-        <v>0</v>
+        <v>461440021</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>539509298</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>50000000</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>317</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>285</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="n">
-        <v>0</v>
+        <v>461440021</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0</v>
+        <v>539509298</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" s="6" t="n">
-        <v>281</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
+        <v>245</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="n">
-        <v>689852832</v>
+        <v>573039879</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>806566400</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>25000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C23" s="6" t="n">
-        <v>280</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>216</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>15</v>
@@ -1045,243 +1073,131 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="n">
-        <v>1079000583</v>
+        <v>941422658</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1261552574</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>25000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>40</v>
+      <c r="A24" s="3" t="n">
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>285</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
+        <v>323</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="n">
-        <v>461440021</v>
+        <v>1412133988</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>539509298</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>50000000</v>
-      </c>
+        <v>899182163</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>40</v>
+      <c r="A25" s="3" t="n">
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>285</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>323</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="4" t="n">
-        <v>461440021</v>
+        <v>769066702</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>539509298</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>899182163</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>45000000</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>245</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>33</v>
+        <v>200</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3"/>
+      <c r="F26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>216</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="F27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>323</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4" t="n">
-        <v>769066702</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>899182163</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>323</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="4" t="n">
-        <v>769066702</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>899182163</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>228</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/App/dist/salary/Targets/1403/03-khordad.xlsx
+++ b/App/dist/salary/Targets/1403/03-khordad.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">عنوان شرکت</t>
   </si>
   <si>
-    <t xml:space="preserve">seller_id</t>
+    <t xml:space="preserve">آیدی مشاور</t>
   </si>
   <si>
     <t xml:space="preserve">نام مشاور</t>
@@ -310,7 +310,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,14 +387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:B5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,7 +568,7 @@
       <c r="C6" s="6" t="n">
         <v>315</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -624,7 +624,7 @@
       <c r="C8" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -781,9 +781,6 @@
         <v>0</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="N13" s="1" t="n">
-        <v>27000000000</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -814,9 +811,6 @@
       <c r="J14" s="4" t="n">
         <v>30000000</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>55000</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -845,16 +839,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="N15" s="1" t="n">
-        <f aca="false">N13/N14</f>
-        <v>490909.090909091</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="6" t="n">
@@ -877,12 +867,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="4"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="6" t="n">
@@ -910,7 +901,7 @@
       <c r="A18" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="n">
@@ -927,7 +918,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="n">
-        <v>689852832</v>
+        <v>767463667</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>806566400</v>
@@ -940,7 +931,7 @@
       <c r="A19" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="6" t="n">
@@ -957,7 +948,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="n">
-        <v>1079000583</v>
+        <v>1200391889</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>1261552574</v>
@@ -970,7 +961,7 @@
       <c r="A20" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="6" t="n">
@@ -987,7 +978,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="n">
-        <v>461440021</v>
+        <v>393571111</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>539509298</v>
@@ -1000,7 +991,7 @@
       <c r="A21" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="6" t="n">
@@ -1017,7 +1008,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="n">
-        <v>461440021</v>
+        <v>590356667</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>539509298</v>
@@ -1084,7 +1075,7 @@
       <c r="A24" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="6" t="n">
@@ -1101,7 +1092,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="n">
-        <v>1412133988</v>
+        <v>688749445</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>899182163</v>
@@ -1112,7 +1103,7 @@
       <c r="A25" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="6" t="n">
@@ -1129,7 +1120,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4" t="n">
-        <v>769066702</v>
+        <v>1033124167</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>899182163</v>
@@ -1200,8 +1191,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
